--- a/test_result/writing_a_value.xlsx
+++ b/test_result/writing_a_value.xlsx
@@ -500,12 +500,12 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
@@ -575,31 +575,31 @@
         <v>18</v>
       </c>
       <c r="N4">
-        <v>0.7142877473955862</v>
+        <v>0.6783525101020478</v>
       </c>
       <c r="O4">
         <v>-1</v>
       </c>
       <c r="P4">
-        <v>0.4285754947911724</v>
+        <v>0.3567050202040956</v>
       </c>
       <c r="Q4">
-        <v>0.7669778526376146</v>
+        <v>0.5754920420347929</v>
       </c>
       <c r="R4">
         <v>1</v>
       </c>
       <c r="S4">
-        <v>0.5339557052752293</v>
+        <v>0.1509840840695857</v>
       </c>
       <c r="T4">
-        <v>0.562717258261934</v>
+        <v>0.7796336996336996</v>
       </c>
       <c r="U4">
         <v>1</v>
       </c>
       <c r="V4">
-        <v>0.1254345165238679</v>
+        <v>0.5592673992673991</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>5</v>
       </c>
       <c r="B15">
-        <v>9.992459596169311</v>
+        <v>9.85252143345858</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -722,7 +722,7 @@
         <v>6</v>
       </c>
       <c r="B16">
-        <v>4.911673833321408</v>
+        <v>5.020494655354245</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -730,7 +730,7 @@
         <v>7</v>
       </c>
       <c r="B17">
-        <v>-6.274865110431435</v>
+        <v>-9.351980052667205</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -738,7 +738,7 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>6.604558789979206</v>
+        <v>6.466083189783197</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -746,7 +746,7 @@
         <v>9</v>
       </c>
       <c r="B19">
-        <v>10.03790946964929</v>
+        <v>10.07544999943667</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -754,7 +754,7 @@
         <v>10</v>
       </c>
       <c r="B20">
-        <v>13.39190822336525</v>
+        <v>13.38880928291256</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -762,7 +762,7 @@
         <v>11</v>
       </c>
       <c r="B21">
-        <v>26.59546627143684</v>
+        <v>29.12869353257992</v>
       </c>
     </row>
     <row r="22" spans="1:3">

--- a/test_result/writing_a_value.xlsx
+++ b/test_result/writing_a_value.xlsx
@@ -495,17 +495,17 @@
       <c r="K2" s="1"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
@@ -575,31 +575,31 @@
         <v>18</v>
       </c>
       <c r="N4">
-        <v>0.6783525101020478</v>
+        <v>0.5607188170993559</v>
       </c>
       <c r="O4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.3567050202040956</v>
+        <v>0.1214376341987118</v>
       </c>
       <c r="Q4">
-        <v>0.5754920420347929</v>
+        <v>0.7831777282599498</v>
       </c>
       <c r="R4">
         <v>1</v>
       </c>
       <c r="S4">
-        <v>0.1509840840695857</v>
+        <v>0.5663554565198996</v>
       </c>
       <c r="T4">
-        <v>0.7796336996336996</v>
+        <v>0.7087799791449426</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V4">
-        <v>0.5592673992673991</v>
+        <v>0.4175599582898852</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>5</v>
       </c>
       <c r="B15">
-        <v>9.85252143345858</v>
+        <v>9.921850020943705</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -722,7 +722,7 @@
         <v>6</v>
       </c>
       <c r="B16">
-        <v>5.020494655354245</v>
+        <v>5.021344692993106</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -730,7 +730,7 @@
         <v>7</v>
       </c>
       <c r="B17">
-        <v>-9.351980052667205</v>
+        <v>-8.327466958658352</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -738,7 +738,7 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>6.466083189783197</v>
+        <v>6.707646015967205</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -746,7 +746,7 @@
         <v>9</v>
       </c>
       <c r="B19">
-        <v>10.07544999943667</v>
+        <v>9.875561065351537</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -754,7 +754,7 @@
         <v>10</v>
       </c>
       <c r="B20">
-        <v>13.38880928291256</v>
+        <v>13.11182579371309</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -762,7 +762,7 @@
         <v>11</v>
       </c>
       <c r="B21">
-        <v>29.12869353257992</v>
+        <v>25.60214361037885</v>
       </c>
     </row>
     <row r="22" spans="1:3">

--- a/test_result/writing_a_value.xlsx
+++ b/test_result/writing_a_value.xlsx
@@ -495,17 +495,17 @@
       <c r="K2" s="1"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
@@ -575,31 +575,31 @@
         <v>18</v>
       </c>
       <c r="N4">
-        <v>0.5607188170993559</v>
+        <v>0.7041217312852566</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P4">
-        <v>0.1214376341987118</v>
+        <v>0.4082434625705131</v>
       </c>
       <c r="Q4">
-        <v>0.7831777282599498</v>
+        <v>0.5497199333020351</v>
       </c>
       <c r="R4">
         <v>1</v>
       </c>
       <c r="S4">
-        <v>0.5663554565198996</v>
+        <v>0.09943986660407012</v>
       </c>
       <c r="T4">
-        <v>0.7087799791449426</v>
+        <v>0.7741065466434253</v>
       </c>
       <c r="U4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>0.4175599582898852</v>
+        <v>0.5482130932868505</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>5</v>
       </c>
       <c r="B15">
-        <v>9.921850020943705</v>
+        <v>9.869827596845477</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -722,7 +722,7 @@
         <v>6</v>
       </c>
       <c r="B16">
-        <v>5.021344692993106</v>
+        <v>4.951099843665786</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -730,7 +730,7 @@
         <v>7</v>
       </c>
       <c r="B17">
-        <v>-8.327466958658352</v>
+        <v>-9.458561131516781</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -738,7 +738,7 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>6.707646015967205</v>
+        <v>6.552760643691096</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -746,7 +746,7 @@
         <v>9</v>
       </c>
       <c r="B19">
-        <v>9.875561065351537</v>
+        <v>9.988824899049497</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -754,7 +754,7 @@
         <v>10</v>
       </c>
       <c r="B20">
-        <v>13.11182579371309</v>
+        <v>13.28321426209553</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -762,7 +762,7 @@
         <v>11</v>
       </c>
       <c r="B21">
-        <v>25.60214361037885</v>
+        <v>23.70176620263562</v>
       </c>
     </row>
     <row r="22" spans="1:3">

--- a/test_result/writing_a_value.xlsx
+++ b/test_result/writing_a_value.xlsx
@@ -495,12 +495,12 @@
       <c r="K2" s="1"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
@@ -575,31 +575,31 @@
         <v>18</v>
       </c>
       <c r="N4">
-        <v>0.7041217312852566</v>
+        <v>0.523252976771423</v>
       </c>
       <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>0.04650595354284603</v>
+      </c>
+      <c r="Q4">
+        <v>0.7361990430222111</v>
+      </c>
+      <c r="R4">
         <v>-1</v>
       </c>
-      <c r="P4">
-        <v>0.4082434625705131</v>
-      </c>
-      <c r="Q4">
-        <v>0.5497199333020351</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
       <c r="S4">
-        <v>0.09943986660407012</v>
+        <v>0.4723980860444221</v>
       </c>
       <c r="T4">
-        <v>0.7741065466434253</v>
+        <v>0.7699568058175457</v>
       </c>
       <c r="U4">
         <v>1</v>
       </c>
       <c r="V4">
-        <v>0.5482130932868505</v>
+        <v>0.5399136116350913</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>5</v>
       </c>
       <c r="B15">
-        <v>9.869827596845477</v>
+        <v>10.14140507033079</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -722,7 +722,7 @@
         <v>6</v>
       </c>
       <c r="B16">
-        <v>4.951099843665786</v>
+        <v>4.865859824874436</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -730,7 +730,7 @@
         <v>7</v>
       </c>
       <c r="B17">
-        <v>-9.458561131516781</v>
+        <v>-5.030967384128449</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -738,7 +738,7 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>6.552760643691096</v>
+        <v>6.862334569795242</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -746,7 +746,7 @@
         <v>9</v>
       </c>
       <c r="B19">
-        <v>9.988824899049497</v>
+        <v>10.03672408650753</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -754,7 +754,7 @@
         <v>10</v>
       </c>
       <c r="B20">
-        <v>13.28321426209553</v>
+        <v>13.40550741141245</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -762,7 +762,7 @@
         <v>11</v>
       </c>
       <c r="B21">
-        <v>23.70176620263562</v>
+        <v>24.810071406628</v>
       </c>
     </row>
     <row r="22" spans="1:3">

--- a/test_result/writing_a_value.xlsx
+++ b/test_result/writing_a_value.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>Column: numeric_variable
 Type: numeric</t>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>AUC</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>KS_p_val</t>
   </si>
   <si>
     <t>rel_type</t>
@@ -446,13 +452,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X22"/>
+  <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,8 +486,14 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -495,28 +507,34 @@
       <c r="K2" s="1"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="2">
-        <v>0</v>
-      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2">
-        <v>2</v>
-      </c>
+      <c r="S2" s="2">
+        <v>1</v>
+      </c>
+      <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="2"/>
+      <c r="X2" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:30">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -539,27 +557,45 @@
         <v>17</v>
       </c>
       <c r="Q3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="V3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-    </row>
-    <row r="4" spans="1:24">
+      <c r="AA3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -572,43 +608,61 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="M4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N4">
-        <v>0.523252976771423</v>
+        <v>0.6672579313598301</v>
       </c>
       <c r="O4">
+        <v>0.2567283877815781</v>
+      </c>
+      <c r="P4">
+        <v>8.269514585912733E-13</v>
+      </c>
+      <c r="Q4">
+        <v>-1</v>
+      </c>
+      <c r="R4">
+        <v>0.3345158627196603</v>
+      </c>
+      <c r="S4">
+        <v>0.5114372523010396</v>
+      </c>
+      <c r="T4">
+        <v>0.05426762237393468</v>
+      </c>
+      <c r="U4">
+        <v>0.4453581064200309</v>
+      </c>
+      <c r="V4">
         <v>1</v>
       </c>
-      <c r="P4">
-        <v>0.04650595354284603</v>
-      </c>
-      <c r="Q4">
-        <v>0.7361990430222111</v>
-      </c>
-      <c r="R4">
-        <v>-1</v>
-      </c>
-      <c r="S4">
-        <v>0.4723980860444221</v>
-      </c>
-      <c r="T4">
-        <v>0.7699568058175457</v>
-      </c>
-      <c r="U4">
+      <c r="W4">
+        <v>0.02287450460207929</v>
+      </c>
+      <c r="X4">
+        <v>0.7777352260348585</v>
+      </c>
+      <c r="Y4">
+        <v>0.4580610021786492</v>
+      </c>
+      <c r="Z4">
+        <v>3.679283183917694E-23</v>
+      </c>
+      <c r="AA4">
         <v>1</v>
       </c>
-      <c r="V4">
-        <v>0.5399136116350913</v>
-      </c>
-      <c r="W4">
+      <c r="AB4">
+        <v>0.5554704520697169</v>
+      </c>
+      <c r="AC4">
         <v>0</v>
       </c>
-      <c r="X4">
+      <c r="AD4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:30">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -621,7 +675,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:30">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -634,7 +688,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:30">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -647,7 +701,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:30">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -660,7 +714,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:30">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -673,7 +727,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:30">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -686,14 +740,14 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:30">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:30">
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
@@ -701,7 +755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:30">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -709,20 +763,20 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:30">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B15">
-        <v>10.14140507033079</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24">
+        <v>9.954581544219382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B16">
-        <v>4.865859824874436</v>
+        <v>4.801950023643339</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -730,7 +784,7 @@
         <v>7</v>
       </c>
       <c r="B17">
-        <v>-5.030967384128449</v>
+        <v>-4.941533206318891</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -738,7 +792,7 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>6.862334569795242</v>
+        <v>6.846806339010524</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -746,7 +800,7 @@
         <v>9</v>
       </c>
       <c r="B19">
-        <v>10.03672408650753</v>
+        <v>9.697867873727063</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -754,7 +808,7 @@
         <v>10</v>
       </c>
       <c r="B20">
-        <v>13.40550741141245</v>
+        <v>13.18698396940038</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -762,7 +816,7 @@
         <v>11</v>
       </c>
       <c r="B21">
-        <v>24.810071406628</v>
+        <v>27.35609961764146</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -780,10 +834,10 @@
   <mergeCells count="6">
     <mergeCell ref="A1:K10"/>
     <mergeCell ref="A12:C12"/>
-    <mergeCell ref="M1:X1"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="M1:AD1"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="X2:AB2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test_result/writing_a_value.xlsx
+++ b/test_result/writing_a_value.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>Column: numeric_variable
 Type: numeric</t>
@@ -53,13 +53,13 @@
     <t>max</t>
   </si>
   <si>
-    <t>Emptys</t>
+    <t>Empty</t>
   </si>
   <si>
     <t>Classification ability</t>
   </si>
   <si>
-    <t>Emptys part</t>
+    <t>Empty part</t>
   </si>
   <si>
     <t>AUC</t>
@@ -452,13 +452,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD22"/>
+  <dimension ref="A1:AG22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:33">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,8 +492,11 @@
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
-    </row>
-    <row r="2" spans="1:30">
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+    </row>
+    <row r="2" spans="1:33">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -507,34 +510,37 @@
       <c r="K2" s="1"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
-      <c r="S2" s="2">
-        <v>1</v>
-      </c>
-      <c r="T2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2">
+        <v>0</v>
+      </c>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
-      <c r="X2" s="2">
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2">
         <v>2</v>
       </c>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
-      <c r="AC2" s="2" t="s">
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:33">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -563,39 +569,48 @@
         <v>19</v>
       </c>
       <c r="S3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-    </row>
-    <row r="4" spans="1:30">
+      <c r="AE3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+    </row>
+    <row r="4" spans="1:33">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -611,58 +626,67 @@
         <v>20</v>
       </c>
       <c r="N4">
-        <v>0.6672579313598301</v>
+        <v>0.5257397747769708</v>
       </c>
       <c r="O4">
-        <v>0.2567283877815781</v>
+        <v>0.06963876566080041</v>
       </c>
       <c r="P4">
-        <v>8.269514585912733E-13</v>
+        <v>0.175452817478935</v>
       </c>
       <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>0.05147954955394152</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0.6904617371027731</v>
+      </c>
+      <c r="U4">
+        <v>0.2939141662330655</v>
+      </c>
+      <c r="V4">
+        <v>2.041412080663211E-16</v>
+      </c>
+      <c r="W4">
         <v>-1</v>
       </c>
-      <c r="R4">
-        <v>0.3345158627196603</v>
-      </c>
-      <c r="S4">
-        <v>0.5114372523010396</v>
-      </c>
-      <c r="T4">
-        <v>0.05426762237393468</v>
-      </c>
-      <c r="U4">
-        <v>0.4453581064200309</v>
-      </c>
-      <c r="V4">
+      <c r="X4">
+        <v>0.3809234742055463</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0.769316264278297</v>
+      </c>
+      <c r="AA4">
+        <v>0.4225726895119418</v>
+      </c>
+      <c r="AB4">
+        <v>1.963681450090185E-20</v>
+      </c>
+      <c r="AC4">
         <v>1</v>
       </c>
-      <c r="W4">
-        <v>0.02287450460207929</v>
-      </c>
-      <c r="X4">
-        <v>0.7777352260348585</v>
-      </c>
-      <c r="Y4">
-        <v>0.4580610021786492</v>
-      </c>
-      <c r="Z4">
-        <v>3.679283183917694E-23</v>
-      </c>
-      <c r="AA4">
-        <v>1</v>
-      </c>
-      <c r="AB4">
-        <v>0.5554704520697169</v>
-      </c>
-      <c r="AC4">
+      <c r="AD4">
+        <v>0.538632528556594</v>
+      </c>
+      <c r="AE4">
         <v>0</v>
       </c>
-      <c r="AD4">
+      <c r="AF4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:30">
+      <c r="AG4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -675,7 +699,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:33">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -688,7 +712,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:33">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -701,7 +725,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:33">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -714,7 +738,7 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:33">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -727,7 +751,7 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:33">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -740,14 +764,14 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:33">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:33">
       <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
@@ -755,7 +779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:33">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -763,20 +787,20 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:33">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B15">
-        <v>9.954581544219382</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>9.84522997191381</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33">
       <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B16">
-        <v>4.801950023643339</v>
+        <v>4.854131809104241</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -784,7 +808,7 @@
         <v>7</v>
       </c>
       <c r="B17">
-        <v>-4.941533206318891</v>
+        <v>-8.356813438257273</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -792,7 +816,7 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>6.846806339010524</v>
+        <v>6.613522476454377</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -800,7 +824,7 @@
         <v>9</v>
       </c>
       <c r="B19">
-        <v>9.697867873727063</v>
+        <v>10.08631148184774</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -808,7 +832,7 @@
         <v>10</v>
       </c>
       <c r="B20">
-        <v>13.18698396940038</v>
+        <v>13.19598380333946</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -816,7 +840,7 @@
         <v>11</v>
       </c>
       <c r="B21">
-        <v>27.35609961764146</v>
+        <v>24.08771554110749</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -834,10 +858,10 @@
   <mergeCells count="6">
     <mergeCell ref="A1:K10"/>
     <mergeCell ref="A12:C12"/>
-    <mergeCell ref="M1:AD1"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="X2:AB2"/>
+    <mergeCell ref="M1:AG1"/>
+    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="T2:Y2"/>
+    <mergeCell ref="Z2:AE2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
